--- a/Text/knauer_sarah_text.xlsx
+++ b/Text/knauer_sarah_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Desktop/Studium/3. Semester/Projekt Interaktive Medien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A2303-CEFB-434F-BEB8-659646FC9E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B1410-CA18-D74B-B0DB-6354E24BBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>spaceship_08</t>
   </si>
   <si>
-    <t>long spaceship floating in dark space, materials rattan bamboo and jute, 8k high resolution photography</t>
-  </si>
-  <si>
     <t>spaceship_07</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>spaceship_02</t>
   </si>
   <si>
-    <t>big spaceship floating in dark space, made out of rattan, 8k high resolution photography</t>
-  </si>
-  <si>
     <t>spaceship_03</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>Die Adaption des Produktionsdesigns von dem Film „2001: A Space Odyssey“ ist das Verwenden des Materials Rattan. Es soll ein mit der Natur im Einklang stehendes, ruhiges und harmonisches Design entstehen. Die Produkte sollen hauptsächlich aus Rattan gefertigt sein. Dabei weisen die Objekte eine grobe Flechttechnik auf, was eine Luftigkeit darstellt. Das Konzept soll entgegen des futuristischen Trends und der Verwendung von Metall und Plastik stehen. Damit soll das Design dem Modernismus und der Technik entgegenstehen und die Gestaltung zurück zur Natur kehren.</t>
+  </si>
+  <si>
+    <t>centrifugally shaped, oval, big spaceship floating in dark space, materials rattan, bamboo and jute, 8k high resolution photography</t>
+  </si>
+  <si>
+    <t>Firefly centrifugally shaped, oval, long and big spaceship floating in dark space, materials rattan, bamboo and jute, 8k high resolution photography</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -710,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -744,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -761,13 +761,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -778,13 +778,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -795,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,13 +863,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -880,13 +880,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -931,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -948,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -965,13 +965,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,13 +982,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -999,13 +999,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>12</v>
@@ -1033,13 +1033,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1050,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>55</v>
+      <c r="E29" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1067,13 +1067,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1101,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Text/knauer_sarah_text.xlsx
+++ b/Text/knauer_sarah_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Desktop/Studium/3. Semester/Projekt Interaktive Medien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B1410-CA18-D74B-B0DB-6354E24BBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB157857-72CC-F64C-9310-2925DB9A8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
     <t>centrifugally shaped, oval, big spaceship floating in dark space, materials rattan, bamboo and jute, 8k high resolution photography</t>
   </si>
   <si>
-    <t>Firefly centrifugally shaped, oval, long and big spaceship floating in dark space, materials rattan, bamboo and jute, 8k high resolution photography</t>
+    <t>centrifugally shaped, oval, long and big spaceship floating in dark space, materials rattan, bamboo and jute, 8k high resolution photography</t>
   </si>
 </sst>
 </file>
